--- a/data/feature explaination.xlsx
+++ b/data/feature explaination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenl\market data export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFF340A-B01A-43F4-B470-9A4AA8D09017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDBE9EA-F529-4413-851D-308A2D9EB4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28935" yWindow="-3375" windowWidth="27270" windowHeight="20895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3585" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Close</t>
   </si>
@@ -90,9 +90,6 @@
     <t>high_volumn</t>
   </si>
   <si>
-    <t>Consecutive_movement_Days</t>
-  </si>
-  <si>
     <t>Future1M_movement_direction</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>check if volumn is higher than 30d average (1,0)</t>
   </si>
   <si>
-    <t>number of consecutive days of rally or down in price movemnet, positive - up, negative - down</t>
-  </si>
-  <si>
     <t>choose one of them to forecast, test which one is more predictive</t>
   </si>
   <si>
@@ -199,6 +193,15 @@
   </si>
   <si>
     <t>price movement for future 15days</t>
+  </si>
+  <si>
+    <t>number of consecutive days of rally or down in price movemnet</t>
+  </si>
+  <si>
+    <t>Consecutive_Up_Days</t>
+  </si>
+  <si>
+    <t>Consecutive_Down_Days</t>
   </si>
 </sst>
 </file>
@@ -242,18 +245,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,7 +543,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,271 +554,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>48</v>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="2"/>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="3"/>
+      <c r="C31" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C8"/>
@@ -820,6 +829,7 @@
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
